--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/02_コーヒーチケット管理システム(共通画面).xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/02_コーヒーチケット管理システム(共通画面).xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="コーヒーチケット管理システム(共通画面)" sheetId="2" r:id="rId2"/>
+    <sheet name="改訂履歴" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -238,17 +239,410 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>終了</t>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂分類</t>
     <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当レビュー</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂内容</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂前</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂後</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一回レビュー指摘対応</t>
+    <rPh sb="0" eb="3">
+      <t>ダイイッカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Message]
+記載無し
+</t>
+    <rPh sb="10" eb="12">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂A-6)</t>
+    <rPh sb="1" eb="3">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット管理システム(共通画面)]
+Name列のNo5　終了
+</t>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
       <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アプリを終了させるボタン</t>
+    <t>(*1)詳細は「01_ユーザー認証」の[ログアウト]シートを参照。</t>
     <rPh sb="4" eb="6">
-      <t>シュウリョウ</t>
-    </rPh>
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドルチェグスト残数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリスタ残数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ドルチェグスト残数表示)ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(バリスタ残数表示)ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト</t>
+  </si>
+  <si>
+    <t>ユーザーが所持する有効チケット数を表示する。</t>
+    <rPh sb="5" eb="7">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂A-7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂A-7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂A-7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット管理システム(共通画面)]
+記載無し
+</t>
+    <rPh sb="23" eb="25">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット管理システム(共通画面)]
+-
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*3)</t>
+  </si>
+  <si>
+    <t>(改訂A-8)</t>
+  </si>
+  <si>
+    <t>テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドルチェグストを選択するためのラジオボタン</t>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリスタを選択するためのラジオボタン</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオボタンで選択されたチケットの消費を実行するボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*2)詳細は「04_コーヒーチケット管理」の[コーヒーチケット管理]シートの(*4)を参照。</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドルチェグスト(ラジオボタン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリスタ(ラジオボタン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*3)詳細は「04_コーヒーチケット管理」の[コーヒーチケット管理]シートの(*1)を参照。</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費(1枚消費)</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*4)詳細は「04_コーヒーチケット管理」の[コーヒーチケット管理]シートの(*3)を参照。</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂A-8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット管理システム(共通画面)]
+Name列のNo5　ログアウト
+仕様変更。
+</t>
+    <rPh sb="39" eb="41">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[コーヒーチケット管理システム(共通画面)]
+残数表示を追記。</t>
+    <rPh sb="23" eb="25">
+      <t>ザンスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[コーヒーチケット管理システム(共通画面)]
+ラジオボタンの仕様を追記。</t>
+    <rPh sb="30" eb="32">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Message]
+消費ボタンの詳細を追記。</t>
+    <rPh sb="10" eb="12">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*5)ローディングについて(改訂A-10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[コーヒーチケット管理システム(共通画面)]
+(*5)ローディングに関する記述を追加。</t>
+    <rPh sb="34" eb="35">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂A-9)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面更新が行われた際は、「読み込み中です。」と表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -282,15 +676,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -313,13 +713,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,7 +818,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,17 +1190,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="25.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="2" bestFit="1" customWidth="1"/>
@@ -776,24 +1307,367 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="4">
-        <f>ROW()-9</f>
+      <c r="B14" s="14">
+        <f t="shared" ref="B14:B21" si="0">ROW()-9</f>
         <v>5</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="5"/>
+      <c r="D14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D22" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="B4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="9">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="10">
+        <v>42859</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="12">
+        <v>42859</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="12">
+        <v>42859</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="12">
+        <v>42859</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="12">
+        <v>42859</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/02_コーヒーチケット管理システム(共通画面).xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/02_コーヒーチケット管理システム(共通画面).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoji\Desktop\機能仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\13.Git\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="コーヒーチケット管理システム(共通画面)" sheetId="2" r:id="rId2"/>
-    <sheet name="改訂履歴" sheetId="3" r:id="rId3"/>
+    <sheet name="画面" sheetId="4" r:id="rId3"/>
+    <sheet name="改訂履歴" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -649,7 +650,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -860,13 +861,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -884,6 +885,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>607314</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>36671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="11428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1155,28 +1199,28 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1192,47 +1236,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="33.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1246,7 +1290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <f>ROW()-9</f>
         <v>1</v>
@@ -1261,7 +1305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <f>ROW()-9</f>
         <v>2</v>
@@ -1276,7 +1320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <f>ROW()-9</f>
         <v>3</v>
@@ -1291,7 +1335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <f>ROW()-9</f>
         <v>4</v>
@@ -1306,7 +1350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="14">
         <f t="shared" ref="B14:B21" si="0">ROW()-9</f>
         <v>5</v>
@@ -1324,7 +1368,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1342,7 +1386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1360,7 +1404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1378,7 +1422,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1396,7 +1440,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1414,7 +1458,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1432,7 +1476,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1450,67 +1494,67 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D22" s="21" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="17" t="s">
         <v>74</v>
       </c>
@@ -1526,22 +1570,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="24.90625" customWidth="1"/>
+    <col min="7" max="7" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
@@ -1554,12 +1612,12 @@
       <c r="E2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1571,7 +1629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" ht="78" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
         <v>31</v>
       </c>
@@ -1591,7 +1649,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" ht="104" x14ac:dyDescent="0.2">
       <c r="B5" s="7"/>
       <c r="C5" s="8">
         <v>7</v>
@@ -1609,7 +1667,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" ht="104" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
       <c r="C6" s="8">
         <v>8</v>
@@ -1627,7 +1685,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" ht="91" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
       <c r="C7" s="8">
         <v>9</v>
@@ -1645,7 +1703,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" ht="104" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="8">
         <v>10</v>

--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/02_コーヒーチケット管理システム(共通画面).xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/02_コーヒーチケット管理システム(共通画面).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\13.Git\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoji\Documents\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -646,11 +646,175 @@
     <t>.</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>改訂E</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第五回レビュー指摘対応</t>
+    <rPh sb="0" eb="2">
+      <t>ダイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット管理システム(共通画面)]
+記載無し。
+</t>
+    <rPh sb="23" eb="25">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[コーヒーチケット管理システム(共通画面)]
+(*6)全体における共通画面の仕様について記載。</t>
+    <rPh sb="27" eb="29">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット管理システム(共通画面)]
+画面の表一覧の各種ボタン表記。
+</t>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[コーヒーチケット管理システム(共通画面)]
+ボタンからリンクに表記を変更。</t>
+    <rPh sb="32" eb="34">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*6)全体的な仕様に関して(改訂E-1)</t>
+    <rPh sb="4" eb="6">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレントが「ユーザー管理」「チケット集計」「チケット管理」の場合、メニューバーに「チケット管理システム」を表示する。</t>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→どの画面においても共通画面に戻れるようにする。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂F</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー外変更</t>
+    <rPh sb="4" eb="5">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[画面]
+-
+</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[画面]
+イメージ追加。</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面イメージ(改訂F-1)</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -677,7 +841,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,6 +851,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,7 +973,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,6 +1033,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -893,18 +1072,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>607314</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>36671</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>36672</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1199,28 +1384,28 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1234,49 +1419,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="33.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1290,7 +1475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <f>ROW()-9</f>
         <v>1</v>
@@ -1305,7 +1490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <f>ROW()-9</f>
         <v>2</v>
@@ -1320,7 +1505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <f>ROW()-9</f>
         <v>3</v>
@@ -1335,7 +1520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <f>ROW()-9</f>
         <v>4</v>
@@ -1350,7 +1535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="14">
         <f t="shared" ref="B14:B21" si="0">ROW()-9</f>
         <v>5</v>
@@ -1368,7 +1553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1386,7 +1571,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1404,7 +1589,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1422,7 +1607,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1440,7 +1625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1458,7 +1643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1476,7 +1661,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1494,72 +1679,92 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D22" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="21"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1572,10 +1777,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1584,22 +1800,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" customWidth="1"/>
-    <col min="7" max="7" width="27.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
@@ -1612,12 +1828,12 @@
       <c r="E2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1629,7 +1845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="78" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="81" x14ac:dyDescent="0.15">
       <c r="B4" s="18" t="s">
         <v>31</v>
       </c>
@@ -1649,7 +1865,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="104" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="108" x14ac:dyDescent="0.15">
       <c r="B5" s="7"/>
       <c r="C5" s="8">
         <v>7</v>
@@ -1667,7 +1883,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="104" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="108" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
       <c r="C6" s="8">
         <v>8</v>
@@ -1685,7 +1901,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="91" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
       <c r="C7" s="8">
         <v>9</v>
@@ -1703,7 +1919,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="104" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="108" x14ac:dyDescent="0.15">
       <c r="B8" s="8"/>
       <c r="C8" s="8">
         <v>10</v>
@@ -1719,6 +1935,64 @@
       </c>
       <c r="G8" s="11" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="B9" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="12">
+        <v>42925</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="20"/>
+      <c r="C10" s="8">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="12">
+        <v>42925</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="B11" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="12">
+        <v>42935</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
